--- a/classfiers/greedy/svm/greedy-svm-poly-results.xlsx
+++ b/classfiers/greedy/svm/greedy-svm-poly-results.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5014492753623188</v>
+        <v>0.7994227994227994</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.8326118326118326</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3304347826086956</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7869565217391304</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8978260869565218</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E7" t="n">
-        <v>0.55</v>
+        <v>0.9264069264069263</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/greedy/svm/greedy-svm-poly-results.xlsx
+++ b/classfiers/greedy/svm/greedy-svm-poly-results.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7994227994227994</v>
+        <v>0.8793650793650792</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8326118326118326</v>
+        <v>0.9492063492063492</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.8213716108452951</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9952153110047847</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.5</v>
       </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.8692185007974482</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.1</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.1333333333333333</v>
-      </c>
       <c r="E7" t="n">
-        <v>0.9264069264069263</v>
+        <v>0.9028753702437913</v>
       </c>
     </row>
   </sheetData>
